--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81F883-BBC8-894D-A229-1855C345F71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42B0785-D368-8E47-9C84-916133664DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="3840" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -838,6 +838,36 @@
   </si>
   <si>
     <t>BlancoRestGeneratorKtが利用するリソースバンドルを蓄えます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.06</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.util.Date 型ではデフォルト値を許容しません。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.07</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フィールドにデフォルト値が設定されていません。blancoValueObjectKtは当面の間、abstractフィールドはサポートしませんので、必ずデフォルト値を設定してください。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ANTTASK.ERR002</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AntTaskパラメータbasepackageは必須項目です。</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">コウモクデス。 </t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1705,10 +1735,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1888,7 +1918,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="22">
-        <f t="shared" ref="A17:A81" si="0">A16+1</f>
+        <f t="shared" ref="A17:A82" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -2985,37 +3015,43 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="32"/>
+      <c r="B81" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22">
-        <f t="shared" ref="A82:A103" si="1">A81+1</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="32"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A83:A106" si="1">A82+1</f>
         <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3024,10 +3060,10 @@
         <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3036,10 +3072,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3048,10 +3084,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3060,10 +3096,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3072,10 +3108,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3084,10 +3120,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3096,7 +3132,7 @@
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>78</v>
@@ -3108,10 +3144,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3120,7 +3156,7 @@
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
@@ -3132,10 +3168,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3144,7 +3180,7 @@
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>93</v>
@@ -3155,18 +3191,18 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="22">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="22">
@@ -3174,10 +3210,10 @@
         <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3186,10 +3222,10 @@
         <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3198,10 +3234,10 @@
         <v>85</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3210,10 +3246,10 @@
         <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3221,6 +3257,12 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="22">
@@ -3228,10 +3270,10 @@
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3240,9 +3282,39 @@
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="22">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="22">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3254,7 +3326,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D99:D100 D102:D103" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D105:D106 D100:D103" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42B0785-D368-8E47-9C84-916133664DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E187BC-B99F-AA43-A0E6-EF67E6E204FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="3840" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -867,6 +867,42 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t xml:space="preserve">コウモクデス。 </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.CLIENT.EXECUTOR.ARG.LANGDOC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クライアントとして渡すリクエスト情報です</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ワタス </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.CLIENT.EXECUTOR.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クライアントとしてAPIよぶためのインタフェイスです</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.CLIENT.EXECUTOR.RETURN.LANGDOC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サーバから戻されるレスポンス情報です</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">モドサレル </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1735,10 +1771,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1918,7 +1954,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="22">
-        <f t="shared" ref="A17:A82" si="0">A16+1</f>
+        <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -3012,7 +3048,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A81:A109" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -3030,7 +3066,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B82" s="28"/>
@@ -3044,7 +3080,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
-        <f t="shared" ref="A83:A106" si="1">A82+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3132,10 +3168,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3144,10 +3180,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3156,10 +3192,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3168,10 +3204,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3180,10 +3216,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3192,10 +3228,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3203,6 +3239,12 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="22">
@@ -3210,10 +3252,10 @@
         <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3222,10 +3264,10 @@
         <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3233,12 +3275,6 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="22">
@@ -3246,10 +3282,10 @@
         <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3258,10 +3294,10 @@
         <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3270,10 +3306,10 @@
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3282,10 +3318,10 @@
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3293,6 +3329,12 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="22">
@@ -3300,10 +3342,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3312,9 +3354,39 @@
         <v>92</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="22">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="22">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="22">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3326,7 +3398,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D105:D106 D100:D103" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D108:D109 D103:D106" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E187BC-B99F-AA43-A0E6-EF67E6E204FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C49C10-9E63-EA48-8D3B-5438AAF8BB2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="3840" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="167">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -903,6 +903,35 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.PERMISSION_FIELD.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>APIの権限を表す文字列を保持します。ApiTelegramクラスに基底フィールドが定義されていることが前提です。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ケンゲン </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">アラワス </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ホジシマス。 </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キテイ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">ゼンテイ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1771,10 +1800,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3048,7 +3077,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
-        <f t="shared" ref="A81:A109" si="1">A80+1</f>
+        <f t="shared" ref="A81:A111" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
@@ -3388,6 +3417,24 @@
       </c>
       <c r="C109" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="22">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="22">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C49C10-9E63-EA48-8D3B-5438AAF8BB2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE956E-BB86-9A41-8D5D-47DB8BF49F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="3840" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="3840" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -933,6 +933,14 @@
     <rPh sb="52" eb="54">
       <t xml:space="preserve">ゼンテイ </t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_GET_REQUEST_BIND</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-get-request-bind</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1800,10 +1808,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2377,10 +2385,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -2395,10 +2403,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -2407,22 +2415,23 @@
       <c r="H41" s="26"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" s="36" customFormat="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
+      <c r="B42" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="26"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" s="36" customFormat="1">
       <c r="A43" s="22">
@@ -2430,10 +2439,10 @@
         <v>29</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
@@ -2447,10 +2456,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -2464,10 +2473,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -2481,10 +2490,10 @@
         <v>32</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -2498,10 +2507,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -2515,10 +2524,10 @@
         <v>34</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -2532,30 +2541,33 @@
         <v>35</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" s="36" customFormat="1">
+      <c r="A50" s="22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C50" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="22">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="26"/>
-      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="22">
@@ -2563,9 +2575,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="23"/>
-      <c r="C51" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="C51" s="24"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -2578,11 +2588,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="B52" s="23"/>
       <c r="C52" s="24" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2597,10 +2605,10 @@
         <v>39</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -2615,10 +2623,10 @@
         <v>40</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2633,10 +2641,10 @@
         <v>41</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -2651,10 +2659,10 @@
         <v>42</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -2669,10 +2677,10 @@
         <v>43</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -2687,10 +2695,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -2705,10 +2713,10 @@
         <v>45</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -2723,10 +2731,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -2740,8 +2748,12 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
+      <c r="B61" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -2754,12 +2766,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
@@ -2773,10 +2781,10 @@
         <v>49</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -2791,10 +2799,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -2808,8 +2816,12 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -2822,12 +2834,8 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>44</v>
-      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -2841,10 +2849,10 @@
         <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
@@ -2859,10 +2867,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -2876,8 +2884,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="27"/>
+      <c r="B69" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -2890,12 +2902,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
@@ -2909,10 +2917,10 @@
         <v>57</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
@@ -2927,10 +2935,10 @@
         <v>58</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -2945,10 +2953,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -2962,8 +2970,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="27"/>
+      <c r="B74" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -2976,12 +2988,8 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -2995,10 +3003,10 @@
         <v>62</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -3013,10 +3021,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -3031,10 +3039,10 @@
         <v>64</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
@@ -3048,8 +3056,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="27"/>
+      <c r="B79" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -3062,12 +3074,8 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
@@ -3077,14 +3085,14 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="22">
-        <f t="shared" ref="A81:A111" si="1">A80+1</f>
+        <f t="shared" ref="A81:A112" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -3098,26 +3106,32 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="32"/>
+      <c r="B82" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="22">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="32"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22">
@@ -3125,10 +3139,10 @@
         <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3137,10 +3151,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3149,10 +3163,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3161,10 +3175,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3173,10 +3187,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3185,10 +3199,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3197,10 +3211,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3209,10 +3223,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3221,10 +3235,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3233,10 +3247,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3245,7 +3259,7 @@
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>78</v>
@@ -3257,10 +3271,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3269,7 +3283,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>92</v>
@@ -3281,10 +3295,10 @@
         <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3293,7 +3307,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>93</v>
@@ -3304,18 +3318,18 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="22">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="22">
@@ -3323,10 +3337,10 @@
         <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3335,10 +3349,10 @@
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3347,10 +3361,10 @@
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3359,10 +3373,10 @@
         <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3371,10 +3385,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3383,10 +3397,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3394,18 +3408,18 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="22">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="22">
@@ -3413,10 +3427,10 @@
         <v>95</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3424,16 +3438,28 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="22">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="22">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3445,7 +3471,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D108:D109 D103:D106" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D109:D110 D104:D107" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE956E-BB86-9A41-8D5D-47DB8BF49F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1406C73-A377-ED4D-A61D-406CF5E57E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3840" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="3840" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="179">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -941,6 +941,70 @@
   </si>
   <si>
     <t>blancotelegramprocess-get-request-bind</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.SERVER_TYPE.ERROR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BlancoRestGeneratorKt では serverType は今の所 micronaut のみをサポートしています。</t>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">イマノトコロ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE.ERROR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BlancoRestGeneratorKt では telegramStyle は今の所 blanco または plain のみをサポートしています。</t>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">イマノトコロ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文では statusCode プロパティは予約されています。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE_RESERVED</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE_REQUIRED</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文では statusCode は必須です。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE.LANGDOC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文を返す際のHttpStatus Codeです。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1325,25 +1389,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,17 +1425,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1380,7 +1442,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1457,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,10 +1870,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1912,1229 +1974,1228 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="17"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <f>A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="17"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="17"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="17"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="17"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="17"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="17"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="17"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="17"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="17"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="17"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="17"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="17"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="17"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="17"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="17"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="17"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="17"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="17"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="17"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="17"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="22">
+      <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="17"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="22">
+      <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="17"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="22">
+      <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="17"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="22">
+      <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" s="36" customFormat="1">
-      <c r="A43" s="22">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" s="34" customFormat="1">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" s="36" customFormat="1">
-      <c r="A44" s="22">
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" s="34" customFormat="1">
+      <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" s="36" customFormat="1">
-      <c r="A45" s="22">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:9" s="34" customFormat="1">
+      <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" s="36" customFormat="1">
-      <c r="A46" s="22">
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" s="34" customFormat="1">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" s="36" customFormat="1">
-      <c r="A47" s="22">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" s="34" customFormat="1">
+      <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" s="36" customFormat="1">
-      <c r="A48" s="22">
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:9" s="34" customFormat="1">
+      <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" s="36" customFormat="1">
-      <c r="A49" s="22">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:9" s="34" customFormat="1">
+      <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:9" s="36" customFormat="1">
-      <c r="A50" s="22">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" s="34" customFormat="1">
+      <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="26"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="22">
+      <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="22">
+      <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="17"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="22">
+      <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="17"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="22">
+      <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="17"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="22">
+      <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="17"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="22">
+      <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="17"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="22">
+      <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="17"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="22">
+      <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="17"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="22">
+      <c r="A59" s="21">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="17"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="22">
+      <c r="A60" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="17"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="22">
+      <c r="A61" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="17"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="22">
+      <c r="A62" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="17"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="22">
+      <c r="A63" s="21">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="17"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="22">
+      <c r="A64" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="17"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="22">
+      <c r="A65" s="21">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="17"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="22">
+      <c r="A66" s="21">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="17"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="22">
+      <c r="A67" s="21">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="17"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="22">
+      <c r="A68" s="21">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="17"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="22">
+      <c r="A69" s="21">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="17"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="22">
+      <c r="A70" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="17"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="22">
+      <c r="A71" s="21">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="17"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="22">
+      <c r="A72" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="17"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="22">
+      <c r="A73" s="21">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="17"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="22">
+      <c r="A74" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="17"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="22">
+      <c r="A75" s="21">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="17"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="22">
+      <c r="A76" s="21">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="17"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="22">
+      <c r="A77" s="21">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="17"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="22">
+      <c r="A78" s="21">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="17"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="22">
+      <c r="A79" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="17"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="22">
+      <c r="A80" s="21">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="17"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="22">
-        <f t="shared" ref="A81:A112" si="1">A80+1</f>
+      <c r="A81" s="21">
+        <f t="shared" ref="A81:A117" si="1">A80+1</f>
         <v>67</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="17"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="22">
+      <c r="A82" s="21">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="17"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="22">
+      <c r="A83" s="21">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="32"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="30"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="22">
+      <c r="A84" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3146,7 +3207,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="22">
+      <c r="A85" s="21">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -3158,7 +3219,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="22">
+      <c r="A86" s="21">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -3170,7 +3231,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="22">
+      <c r="A87" s="21">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -3182,7 +3243,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="22">
+      <c r="A88" s="21">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -3194,7 +3255,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="22">
+      <c r="A89" s="21">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3206,7 +3267,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="22">
+      <c r="A90" s="21">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -3218,7 +3279,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="22">
+      <c r="A91" s="21">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3230,7 +3291,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="22">
+      <c r="A92" s="21">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -3242,7 +3303,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="22">
+      <c r="A93" s="21">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -3254,7 +3315,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="22">
+      <c r="A94" s="21">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -3266,7 +3327,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="22">
+      <c r="A95" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -3278,7 +3339,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="22">
+      <c r="A96" s="21">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -3290,7 +3351,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="22">
+      <c r="A97" s="21">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -3302,7 +3363,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="22">
+      <c r="A98" s="21">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -3314,7 +3375,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="22">
+      <c r="A99" s="21">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3326,13 +3387,13 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="22">
+      <c r="A100" s="21">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="22">
+      <c r="A101" s="21">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -3344,7 +3405,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="22">
+      <c r="A102" s="21">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -3356,7 +3417,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="22">
+      <c r="A103" s="21">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
@@ -3368,7 +3429,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="22">
+      <c r="A104" s="21">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3380,7 +3441,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="22">
+      <c r="A105" s="21">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -3392,7 +3453,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="22">
+      <c r="A106" s="21">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -3404,7 +3465,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="22">
+      <c r="A107" s="21">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -3416,13 +3477,13 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="22">
+      <c r="A108" s="21">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="22">
+      <c r="A109" s="21">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -3434,7 +3495,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="22">
+      <c r="A110" s="21">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -3446,13 +3507,13 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="22">
+      <c r="A111" s="21">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="22">
+      <c r="A112" s="21">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
@@ -3461,6 +3522,66 @@
       </c>
       <c r="C112" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="21">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="21">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="21">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="21">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1406C73-A377-ED4D-A61D-406CF5E57E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E47AC-1DBD-2641-A329-512AEDEB6679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3840" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -1004,6 +1004,23 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.08</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文のメソッドタイプが設定されていません。電文はGet/Delete/Post/Putのいずれかでなければなりません。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">デンブｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1870,10 +1887,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3147,7 +3164,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21">
-        <f t="shared" ref="A81:A117" si="1">A80+1</f>
+        <f t="shared" ref="A81:A118" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3481,18 +3498,18 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="21">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21">
@@ -3500,10 +3517,10 @@
         <v>96</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3511,18 +3528,18 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="21">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="21">
@@ -3530,10 +3547,10 @@
         <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3542,10 +3559,10 @@
         <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3554,10 +3571,10 @@
         <v>101</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3566,10 +3583,10 @@
         <v>102</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3578,9 +3595,21 @@
         <v>103</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="21">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3592,7 +3621,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D109:D110 D104:D107" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D110:D111 D104:D108" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E47AC-1DBD-2641-A329-512AEDEB6679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3962E-F5E6-8B41-BC1A-93AEB10758E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -1021,6 +1021,35 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.09</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クエリ種別Pathは必須です。Nullは許容しません。 [{0}] のパラメータ  [{1}] の設定を確認してください。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">キョヨウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="32" eb="42">
+      <t xml:space="preserve">セッテイヲ </t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">カクニｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1887,10 +1916,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3102,7 +3131,7 @@
       <c r="B77" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D77" s="24"/>
@@ -3164,7 +3193,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21">
-        <f t="shared" ref="A81:A118" si="1">A80+1</f>
+        <f t="shared" ref="A81:A119" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3510,18 +3539,18 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="21">
@@ -3529,10 +3558,10 @@
         <v>97</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3540,18 +3569,18 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="21">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="21">
@@ -3559,10 +3588,10 @@
         <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3571,10 +3600,10 @@
         <v>101</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3583,10 +3612,10 @@
         <v>102</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3595,10 +3624,10 @@
         <v>103</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3607,9 +3636,21 @@
         <v>104</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="21">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3621,7 +3662,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D110:D111 D104:D108" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D112 D104:D109" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3962E-F5E6-8B41-BC1A-93AEB10758E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804180AB-4FAF-2A46-8C3C-1C497A657569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,26 +1029,32 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>クエリ種別Pathは必須です。Nullは許容しません。 [{0}] のパラメータ  [{1}] の設定を確認してください。</t>
-    <rPh sb="3" eb="5">
+    <t>【注意】 [{0}] パラメータ  [{1}] のクエリ種別PathがNullableで指定されています。これが意図した物かどうか確認してください。</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">チュウイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t xml:space="preserve">シュベツ </t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ヒッス </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">キョヨウ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
       <t xml:space="preserve">デンブｎ </t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="34" eb="36">
       <t xml:space="preserve">イチラｎ </t>
     </rPh>
-    <rPh sb="32" eb="42">
+    <rPh sb="37" eb="47">
       <t xml:space="preserve">セッテイヲ </t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="48" eb="49">
+      <t xml:space="preserve">カクニｎ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">イトシタモノカドウカ </t>
+    </rPh>
+    <rPh sb="65" eb="67">
       <t xml:space="preserve">カクニｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1918,8 +1924,8 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804180AB-4FAF-2A46-8C3C-1C497A657569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101E907-7563-0C43-8363-193E507FAB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -1029,33 +1029,38 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>【注意】 [{0}] パラメータ  [{1}] のクエリ種別PathがNullableで指定されています。これが意図した物かどうか確認してください。</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">チュウイ </t>
+    <t>クエリ種別Pathは常に必須です。Nullableも許容されません。[{0}] のパラメータ  [{1}] を確認してください。</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ツネニ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キョヨウ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シテイ デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Pathクエリ書式に [{0}] が指定されていません。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">シュベツ </t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t xml:space="preserve">シュベツ </t>
-    </rPh>
-    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ショシキ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t xml:space="preserve">シテイ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t xml:space="preserve">イチラｎ </t>
-    </rPh>
-    <rPh sb="37" eb="47">
-      <t xml:space="preserve">セッテイヲ </t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t xml:space="preserve">カクニｎ </t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t xml:space="preserve">イトシタモノカドウカ </t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t xml:space="preserve">カクニｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1922,10 +1927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3199,7 +3204,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21">
-        <f t="shared" ref="A81:A119" si="1">A80+1</f>
+        <f t="shared" ref="A81:A120" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3557,18 +3562,18 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="21">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="21">
@@ -3576,10 +3581,10 @@
         <v>98</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3587,18 +3592,18 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="21">
@@ -3606,10 +3611,10 @@
         <v>101</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3618,10 +3623,10 @@
         <v>102</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3630,10 +3635,10 @@
         <v>103</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3642,10 +3647,10 @@
         <v>104</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3654,9 +3659,21 @@
         <v>105</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="21">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3668,7 +3685,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D112 D104:D109" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D112:D113 D104:D110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101E907-7563-0C43-8363-193E507FAB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C49FDA-7C3F-A54C-AFCE-AAF60BB68278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -1061,6 +1061,38 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BLANCOREST.ERROR.MSG.11</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文のペイロードにはプリミティブ型 [{0}] が期待されていますが電文定義・一覧にクエリ文字列以外のプロパティが存在します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニュウリョクデンブｎ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ガタ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キタイ </t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t xml:space="preserve">デンブンテイギ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ソンザイシマス </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1927,10 +1959,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3204,7 +3236,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21">
-        <f t="shared" ref="A81:A120" si="1">A80+1</f>
+        <f t="shared" ref="A81:A121" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3574,18 +3606,18 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="21">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="21">
@@ -3593,10 +3625,10 @@
         <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3604,18 +3636,18 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="21">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21">
@@ -3623,10 +3655,10 @@
         <v>102</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3635,10 +3667,10 @@
         <v>103</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3647,10 +3679,10 @@
         <v>104</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3659,10 +3691,10 @@
         <v>105</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3671,9 +3703,21 @@
         <v>106</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="21">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3685,7 +3729,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D112:D113 D104:D110" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D113:D114 D104:D111" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C49FDA-7C3F-A54C-AFCE-AAF60BB68278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA83F8-FAA4-B04B-A2A9-2D201471B6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,41 +560,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>リクエストがnullです</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>期待されるリクエストの型[{0}]に対して[{1}]が渡されました</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLANCOREST.ERROR.MSG.01</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>BLANCOREST.ERROR.MSG.02</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>レスポンスの内容が空です</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カラ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -845,15 +815,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>java.util.Date 型ではデフォルト値を許容しません。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLANCOREST.ERROR.MSG.07</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>フィールドにデフォルト値が設定されていません。blancoValueObjectKtは当面の間、abstractフィールドはサポートしませんので、必ずデフォルト値を設定してください。</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -966,16 +928,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>エラー電文では statusCode プロパティは予約されています。</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">ヨヤク </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE_RESERVED</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -984,67 +936,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>エラー電文では statusCode は必須です。</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">ヒッス </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLANCOREST.TELEGRAM_STYLE_PLAIN.STATUS_CODE.LANGDOC</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>エラー電文を返す際のHttpStatus Codeです。</t>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">カエス </t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">サイノ </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLANCOREST.ERROR.MSG.08</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>電文のメソッドタイプが設定されていません。電文はGet/Delete/Post/Putのいずれかでなければなりません。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLANCOREST.ERROR.MSG.09</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クエリ種別Pathは常に必須です。Nullableも許容されません。[{0}] のパラメータ  [{1}] を確認してください。</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">シュベツ </t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">ツネニ </t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">ヒッス </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">キョヨウ </t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t xml:space="preserve">シテイ デンブｎ </t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1069,30 +969,142 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>電文のペイロードにはプリミティブ型 [{0}] が期待されていますが電文定義・一覧にクエリ文字列以外のプロパティが存在します。</t>
+    <t>電文 [ {0} ] のペイロードにはプリミティブ型 [ {1} ] が期待されていますが電文定義・一覧にクエリ文字列以外のプロパティが存在します。</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ニュウリョクデンブｎ </t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="25" eb="26">
       <t xml:space="preserve">ガタ </t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="36" eb="38">
       <t xml:space="preserve">キタイ </t>
     </rPh>
-    <rPh sb="34" eb="38">
+    <rPh sb="45" eb="49">
       <t xml:space="preserve">デンブンテイギ </t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="50" eb="52">
       <t xml:space="preserve">イチラｎ </t>
     </rPh>
-    <rPh sb="45" eb="48">
+    <rPh sb="56" eb="59">
       <t xml:space="preserve">モジレツ </t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="59" eb="61">
       <t xml:space="preserve">イガイノ </t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="68" eb="70">
       <t xml:space="preserve">ソンザイシマス </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文 [ {0} ] では statusCode プロパティは予約されています。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ヨヤク </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文 [ {0} ] では statusCode は必須です。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー電文を返す際のHttpStatus Codeです。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文 [ {0} ] のフィールド [ {1} ] にデフォルト値が設定されていません。blancoRestGeneratorKtは当面の間、abstractフィールドはサポートしませんので、必ずデフォルト値を設定してください。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文 [ {0} ] のリクエストがnullです</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文 [ {0} ] で、期待されるリクエストの型[ {1} ]に対して[ {2} ]が渡されました</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文 [ {0} ] で、レスポンスの内容が空です</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.util.Date 型ではデフォルト値を許容しません。（電文 [ {0} ]）</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文 [ {0} ] でメソッドタイプが設定されていません。電文はGet/Delete/Post/Putのいずれかでなければなりません。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クエリ種別Pathは常に必須です。Nullableも許容されません。電文 [{0}] のパラメータ  [{1}] を確認してください。</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ツネニ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キョヨウ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">シテイ デンブｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1961,8 +1973,8 @@
   </sheetPr>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2009,7 +2021,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -2033,7 +2045,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
@@ -2044,7 +2056,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -2305,7 +2317,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2323,7 +2335,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -2356,10 +2368,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -2374,10 +2386,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2392,10 +2404,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -2410,10 +2422,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -2464,10 +2476,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -2482,10 +2494,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -2500,10 +2512,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2518,10 +2530,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -2536,10 +2548,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -2554,10 +2566,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -2590,10 +2602,10 @@
         <v>29</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -2607,10 +2619,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
@@ -2624,10 +2636,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
@@ -2641,10 +2653,10 @@
         <v>32</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
@@ -2658,10 +2670,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="39"/>
@@ -2675,10 +2687,10 @@
         <v>34</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" s="39"/>
@@ -2692,10 +2704,10 @@
         <v>35</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
@@ -2709,10 +2721,10 @@
         <v>36</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -2864,10 +2876,10 @@
         <v>45</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -2882,10 +2894,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -2900,10 +2912,10 @@
         <v>47</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
@@ -3258,10 +3270,10 @@
         <v>68</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
@@ -3373,10 +3385,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3385,10 +3397,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3397,10 +3409,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3487,10 +3499,10 @@
         <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3499,10 +3511,10 @@
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3511,10 +3523,10 @@
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3523,10 +3535,10 @@
         <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3535,10 +3547,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3547,10 +3559,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3559,10 +3571,10 @@
         <v>93</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3571,10 +3583,10 @@
         <v>94</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3583,10 +3595,10 @@
         <v>95</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3595,22 +3607,22 @@
         <v>96</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="21">
-        <f t="shared" si="1"/>
+        <f>A110+1</f>
         <v>97</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3625,10 +3637,10 @@
         <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3637,10 +3649,10 @@
         <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3655,10 +3667,10 @@
         <v>102</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3667,10 +3679,10 @@
         <v>103</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3679,10 +3691,10 @@
         <v>104</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3691,10 +3703,10 @@
         <v>105</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3703,10 +3715,10 @@
         <v>106</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3715,10 +3727,10 @@
         <v>107</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA83F8-FAA4-B04B-A2A9-2D201471B6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E96CC-2994-2F4C-8507-43C264D36694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -1105,6 +1105,111 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t xml:space="preserve">シテイ デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>API実装クラスが実装すべき後処理メソッドです</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">アトショリ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>API実装クラスが実装すべき後処理メソッド（配列対応版）です</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">アトショリ </t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t xml:space="preserve">ハイレツタイオウ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">バｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>API実装クラスが実装すべき、APIが呼び出し可能かどうかを返すメソッドです</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.FINISH.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.FINISHARRAY.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.IS.SPOILED.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.VIRTUAL.PARAMETER.LANGDOC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想パラメータです</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カソウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.IS.SPOILED.METHOD.LANGDOC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実行可能かどうかを確認するHTTPメソッド名です</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カノウカドウカ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カクニンスル </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.IS.SPOILED.METHOD.RETURN.DESCRIPTION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実行可能でなければTRUEを返します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カノウカドウカ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">カエシマウ。 </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1971,10 +2076,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3248,7 +3353,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21">
-        <f t="shared" ref="A81:A121" si="1">A80+1</f>
+        <f t="shared" ref="A81:A127" si="1">A80+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -3325,10 +3430,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3337,10 +3442,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3349,10 +3454,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3361,10 +3466,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3373,10 +3478,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3385,10 +3490,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3397,10 +3502,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3409,10 +3514,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3421,10 +3526,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3433,303 +3538,375 @@
         <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A96" si="2">A95+1</f>
         <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="21">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>A95+1</f>
+        <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="21">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="21">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="21">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="21">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="21">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="21">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="21">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="21">
         <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="21">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="21">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="21">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="21">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21">
         <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="21">
-        <f>A110+1</f>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="21">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="21">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="21">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="21">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="21">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="21">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="21">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="21">
         <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="21">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="21">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="21">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="21">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="21">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="21">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3741,7 +3918,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D113:D114 D104:D111" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D119:D120 D110:D117" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E96CC-2994-2F4C-8507-43C264D36694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C446B2-1161-0C42-934F-5B9149D53E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27640" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="201">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -1211,6 +1211,14 @@
     <rPh sb="14" eb="15">
       <t xml:space="preserve">カエシマウ。 </t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-commoninterface</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_COMMOINTERFACE</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2076,10 +2084,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2617,10 +2625,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2635,10 +2643,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -2653,10 +2661,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -2671,10 +2679,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -2689,10 +2697,10 @@
         <v>28</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -2701,22 +2709,23 @@
       <c r="H42" s="25"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="34" customFormat="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
+      <c r="B43" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="25"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" s="34" customFormat="1">
       <c r="A44" s="21">
@@ -2724,10 +2733,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
@@ -2741,10 +2750,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
@@ -2758,10 +2767,10 @@
         <v>32</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
@@ -2775,10 +2784,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="39"/>
@@ -2792,10 +2801,10 @@
         <v>34</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" s="39"/>
@@ -2809,10 +2818,10 @@
         <v>35</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
@@ -2826,30 +2835,33 @@
         <v>36</v>
       </c>
       <c r="B50" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" s="34" customFormat="1">
+      <c r="A51" s="21">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B51" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="21">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="25"/>
-      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="21">
@@ -2857,9 +2869,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="22"/>
-      <c r="C52" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="C52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -2872,11 +2882,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="B53" s="22"/>
       <c r="C53" s="23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -2891,10 +2899,10 @@
         <v>40</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -2909,10 +2917,10 @@
         <v>41</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
@@ -2927,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
@@ -2945,10 +2953,10 @@
         <v>43</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
@@ -2963,10 +2971,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
@@ -2981,10 +2989,10 @@
         <v>45</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -2999,10 +3007,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -3017,10 +3025,10 @@
         <v>47</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
@@ -3034,8 +3042,12 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+      <c r="B62" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>145</v>
+      </c>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -3048,12 +3060,8 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -3067,10 +3075,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
@@ -3085,10 +3093,10 @@
         <v>51</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
@@ -3102,8 +3110,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
@@ -3116,12 +3128,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -3135,10 +3143,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
@@ -3153,10 +3161,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
@@ -3170,8 +3178,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="26"/>
+      <c r="B70" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -3184,12 +3196,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -3203,10 +3211,10 @@
         <v>58</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
@@ -3221,10 +3229,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
@@ -3239,10 +3247,10 @@
         <v>60</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -3256,8 +3264,12 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -3270,12 +3282,8 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -3289,10 +3297,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
@@ -3307,10 +3315,10 @@
         <v>64</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
@@ -3325,10 +3333,10 @@
         <v>65</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
@@ -3342,8 +3350,12 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
@@ -3353,15 +3365,11 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21">
-        <f t="shared" ref="A81:A127" si="1">A80+1</f>
+        <f t="shared" ref="A81:A128" si="1">A80+1</f>
         <v>67</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
@@ -3375,10 +3383,10 @@
         <v>68</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
@@ -3392,25 +3400,31 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
+      <c r="B83" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="21">
@@ -3418,10 +3432,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3430,10 +3444,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3442,10 +3456,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3454,10 +3468,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3466,10 +3480,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3478,10 +3492,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3490,10 +3504,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3502,10 +3516,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3514,10 +3528,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3526,10 +3540,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3538,79 +3552,79 @@
         <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="21">
-        <f t="shared" ref="A96" si="2">A95+1</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="21">
-        <f>A95+1</f>
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="21">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="21">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="21">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="21">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>78</v>
@@ -3619,22 +3633,22 @@
     <row r="102" spans="1:3">
       <c r="A102" s="21">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="21">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>92</v>
@@ -3643,22 +3657,22 @@
     <row r="104" spans="1:3">
       <c r="A104" s="21">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="21">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>93</v>
@@ -3667,246 +3681,258 @@
     <row r="106" spans="1:3">
       <c r="A106" s="21">
         <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="21">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="21">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="21">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="21">
         <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="21">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="21">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="21">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="21">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="21">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="21">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="21">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="21">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="21">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="21">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="21">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="21">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="21">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="21">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="21">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3918,7 +3944,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D119:D120 D110:D117" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D120:D121 D111:D118" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
